--- a/biology/Histoire de la zoologie et de la botanique/Earl_Edward_Sherff/Earl_Edward_Sherff.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Earl_Edward_Sherff/Earl_Edward_Sherff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Earl Edward Sherff, né le 18 mai 1886 à Flint (Michigan) et mort le 16 mai 1966 à Hastings (Michigan), est un botaniste et taxinomiste américain, spécialiste notamment de la flore d'Hawaï. L'épithète spécifique de Dubautia sherffiana lui rend hommage[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Earl Edward Sherff, né le 18 mai 1886 à Flint (Michigan) et mort le 16 mai 1966 à Hastings (Michigan), est un botaniste et taxinomiste américain, spécialiste notamment de la flore d'Hawaï. L'épithète spécifique de Dubautia sherffiana lui rend hommage.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commence ses études universitaires au Albion College dans le Michigan, où il obtient son diplôme de botanique, puis il obtient son master et, en 1916, son doctorat à l'université de Chicago[2]. Il enseigne dans plusieurs lycées de Chicago (1907-1912), puis dans un institut de formation des enseignants en 1923, dont il dirige le département des sciences de 1929 à 1951. Il est chercheur associé du musée Field d'histoire naturelle de Chicago. Il lègue une partie de son herbier personnel au jardin botanique du Missouri.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence ses études universitaires au Albion College dans le Michigan, où il obtient son diplôme de botanique, puis il obtient son master et, en 1916, son doctorat à l'université de Chicago. Il enseigne dans plusieurs lycées de Chicago (1907-1912), puis dans un institut de formation des enseignants en 1923, dont il dirige le département des sciences de 1929 à 1951. Il est chercheur associé du musée Field d'histoire naturelle de Chicago. Il lègue une partie de son herbier personnel au jardin botanique du Missouri.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) « Studies in the Genus Bidens. VI », in Botanical Gazette [auj. International Journal of Plant Sciences], vol. 76, no 2, octobre 1923, p. 144-166.
 (en) « A Revision of the Hawaiian Species of Euphorbia L », Annals of the Missouri Botanical Garden, vol. 25, février 1938, p. 1-94 [lire en ligne].
